--- a/tests_cases/TC-Print3-13.xlsx
+++ b/tests_cases/TC-Print3-13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7665F67-845C-4B8D-8CAA-30BA90821F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5423FE5-BEED-47E2-9143-4A748D0041FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A0084268-E166-481B-8EB9-8B9D17140C35}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>User Stories covered</t>
   </si>
   <si>
-    <t>HU-6</t>
-  </si>
-  <si>
     <t>Automation Status</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>TC-Print3-13</t>
+  </si>
+  <si>
+    <t>PE-10</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -438,17 +438,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -471,12 +460,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -520,33 +503,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -556,9 +579,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -568,43 +588,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,7 +913,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,15 +926,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -954,205 +943,213 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>1</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>2</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>3</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>4</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="37"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>1</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>2</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>1</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>2</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="23">
-        <v>2</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="49"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23">
-        <v>3</v>
-      </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="B21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="22"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="45"/>
-    </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
-        <v>1</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="48"/>
-    </row>
-    <row r="20" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
-        <v>2</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="48"/>
-    </row>
-    <row r="21" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46">
-        <v>3</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="47" t="s">
+      <c r="B22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="48"/>
-    </row>
-    <row r="22" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46">
-        <v>4</v>
-      </c>
-      <c r="B22" s="47" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="48"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="49"/>
+      <c r="G23" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
@@ -1163,13 +1160,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
